--- a/WindowsFormsApp1/ActivitiesPlanHelpers/ReportForms/Report1.xlsx
+++ b/WindowsFormsApp1/ActivitiesPlanHelpers/ReportForms/Report1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectTER\Final\Energo-Info-master\WindowsFormsApp1\bin\Debug\ActivitiesPlanHelpers\ReportForms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BACF361-EBBA-4A93-9A3D-13B56B3A3A1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11625"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -96,11 +102,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,12 +221,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -237,21 +254,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -259,13 +273,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,26 +553,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="X5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -579,218 +597,218 @@
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:23" ht="14.4" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="15" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-    </row>
-    <row r="5" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="15" t="s">
+    <row r="3" spans="1:23" ht="14.4" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.4" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+    </row>
+    <row r="5" spans="1:23" ht="62.25" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-    </row>
-    <row r="6" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.4" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="6"/>
@@ -852,37 +870,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:23">
+      <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="6"/>
@@ -944,37 +962,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:23">
+      <c r="A11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="6"/>
@@ -1036,13 +1054,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23">
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
+      <c r="S13" s="19">
+        <v>0</v>
+      </c>
+      <c r="T13" s="19">
+        <v>0</v>
+      </c>
+      <c r="U13" s="19">
+        <v>0</v>
+      </c>
+      <c r="V13" s="19">
+        <v>0</v>
+      </c>
+      <c r="W13" s="19">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="I2:K4"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A9:W9"/>
+    <mergeCell ref="A11:W11"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:H4"/>
+    <mergeCell ref="V2:V6"/>
     <mergeCell ref="W2:W6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
@@ -1059,21 +1149,6 @@
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I2:K4"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A9:W9"/>
-    <mergeCell ref="A11:W11"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:H4"/>
-    <mergeCell ref="V2:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
